--- a/inventory_indoors.xlsx
+++ b/inventory_indoors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NGENSadmin/Graduate Center Dropbox/Ricardo Toledo-Crow/Urban RF-EMF measurements/RT-C/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngensadmin/Library/CloudStorage/Dropbox-GraduateCenter/Ricardo Toledo-Crow/Urban RF-EMF measurements/RT-C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576CDC2F-3F9D-3F45-A83C-57528C128FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64D0EAB-F736-F240-920B-3AEA55BC4CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2520" windowWidth="28100" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="37200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BJ$5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>date</t>
   </si>
@@ -327,9 +340,6 @@
   </si>
   <si>
     <t>Queens</t>
-  </si>
-  <si>
-    <t>Indoors</t>
   </si>
 </sst>
 </file>
@@ -339,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -401,6 +411,2545 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> values by indoor location spaces (V/m)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7900113974790366E-2"/>
+          <c:y val="2.223970904029049E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uplink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$P$2:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.8302417026091045E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1073310617638729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3030176393167421E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2984890674313366E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E53B-2B48-8F73-81A4F7584280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WLAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19383113741089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6349258253612804E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2312515013943284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2751121615632387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E53B-2B48-8F73-81A4F7584280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Broadcast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.9423043055431205E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1422370894709819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9864765307024562E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7593249771641128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E53B-2B48-8F73-81A4F7584280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18355913214795741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1138548752742406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20256904356949509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25203529042458139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E53B-2B48-8F73-81A4F7584280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Downlink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$O$2:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.34816353469513361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42859741589476219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26969459910553562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3447161698368309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E53B-2B48-8F73-81A4F7584280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.53343532709865094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5662119282949567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48217868304964739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55780378640994766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E53B-2B48-8F73-81A4F7584280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="1154904016"/>
+        <c:axId val="1154905728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1154904016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154905728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1154905728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154904016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Proportion of mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> values by indoor location (V/m)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9767934823168365E-2"/>
+          <c:y val="3.0326875964032485E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Downlink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$O$2:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.34816353469513361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42859741589476219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26969459910553562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3447161698368309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-209A-F742-9B3F-C75BD3EB6802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18355913214795741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1138548752742406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20256904356949509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25203529042458139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-209A-F742-9B3F-C75BD3EB6802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Broadcast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.9423043055431205E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1422370894709819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9864765307024562E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7593249771641128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-209A-F742-9B3F-C75BD3EB6802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WLAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19383113741089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6349258253612804E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2312515013943284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2751121615632387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-209A-F742-9B3F-C75BD3EB6802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uplink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Totals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$P$2:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.8302417026091045E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1073310617638729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3030176393167421E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2984890674313366E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-209A-F742-9B3F-C75BD3EB6802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="304"/>
+        <c:overlap val="100"/>
+        <c:axId val="1154904016"/>
+        <c:axId val="1154905728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1154904016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154905728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1154905728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154904016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638B7CDA-94C3-4953-35CA-8189D41B1AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDC381B-B6B9-6BC4-8D7D-8F4D2DB5048A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,13 +3271,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AS1" sqref="AS1"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -782,7 +3331,7 @@
     <col min="62" max="62" width="13" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="3" customFormat="1">
+    <row r="1" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -970,7 +3519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1155,7 +3704,7 @@
         <v>5.5321353494794147E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1340,7 +3889,7 @@
         <v>0.60408990940675078</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1525,7 +4074,7 @@
         <v>0.48727953150621001</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1722,13 +4271,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1762,8 +4317,26 @@
       <c r="K1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -1797,8 +4370,29 @@
       <c r="K2" s="2">
         <v>0.22889076594491201</v>
       </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2">
+        <v>6.9423043055431205E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.34816353469513361</v>
+      </c>
+      <c r="P2">
+        <v>7.8302417026091045E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.19383113741089</v>
+      </c>
+      <c r="R2">
+        <v>0.18355913214795741</v>
+      </c>
+      <c r="S2">
+        <v>0.53343532709865094</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
@@ -1832,8 +4426,29 @@
       <c r="K3" s="2">
         <v>0.38878896375726468</v>
       </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3">
+        <v>0.1422370894709819</v>
+      </c>
+      <c r="O3">
+        <v>0.42859741589476219</v>
+      </c>
+      <c r="P3">
+        <v>0.1073310617638729</v>
+      </c>
+      <c r="Q3">
+        <v>9.6349258253612804E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.1138548752742406</v>
+      </c>
+      <c r="S3">
+        <v>0.5662119282949567</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1867,8 +4482,29 @@
       <c r="K4" s="2">
         <v>6.7944732179132175E-2</v>
       </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4">
+        <v>1.9864765307024562E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.26969459910553562</v>
+      </c>
+      <c r="P4">
+        <v>5.3030176393167421E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.2312515013943284</v>
+      </c>
+      <c r="R4">
+        <v>0.20256904356949509</v>
+      </c>
+      <c r="S4">
+        <v>0.48217868304964739</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1902,8 +4538,29 @@
       <c r="K5" s="2">
         <v>0.2366572151949021</v>
       </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>3.7593249771641128E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.3447161698368309</v>
+      </c>
+      <c r="P5">
+        <v>7.2984890674313366E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.2751121615632387</v>
+      </c>
+      <c r="R5">
+        <v>0.25203529042458139</v>
+      </c>
+      <c r="S5">
+        <v>0.55780378640994766</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -1938,7 +4595,7 @@
         <v>0.20601849267613651</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1973,10 +4630,10 @@
         <v>0.47462526464142413</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -2011,7 +4668,7 @@
         <v>0.36575036923488702</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -2046,7 +4703,7 @@
         <v>0.48513251987960121</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2081,7 +4738,7 @@
         <v>9.1152106324330975E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -2116,7 +4773,7 @@
         <v>9.7186356253702588E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -2151,7 +4808,7 @@
         <v>0.19873935237060189</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -2186,10 +4843,10 @@
         <v>0.5855275649984113</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -2224,7 +4881,7 @@
         <v>3.6469662208459187E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -2259,7 +4916,7 @@
         <v>0.38538594881717531</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -2294,7 +4951,7 @@
         <v>4.2712222292737648E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -2329,7 +4986,7 @@
         <v>0.31087368367821072</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -2364,7 +5021,7 @@
         <v>0.22724935675531441</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -2399,10 +5056,10 @@
         <v>0.48727953150621001</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -2437,7 +5094,7 @@
         <v>2.097306373046455E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -2472,7 +5129,7 @@
         <v>0.16420632296917301</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -2507,7 +5164,7 @@
         <v>3.7808643513395808E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -2542,7 +5199,7 @@
         <v>0.20996584672889021</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -2577,7 +5234,7 @@
         <v>0.15209365546927031</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>100</v>
       </c>
@@ -2612,220 +5269,83 @@
         <v>0.2218240571240182</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.1354734695271391E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.175925167687128E-2</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6.9423043055431205E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2.4423325211535781E-2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1.6158898477309641E-2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>3.62381014955254E-2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>8.0396455145733875E-2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1.987759801887542</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.22889076594491201</v>
-      </c>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8.8238313673823128E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7.7143891527456654E-2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.34816353469513361</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.191424945891805</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.24211379555903051</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.42015000892538368</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.83252472035369629</v>
-      </c>
-      <c r="J31" s="2">
-        <v>2.5075365381186372</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.38878896375726468</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5.3037722424704482E-3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3.6788721097640781E-2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>7.8302417026091045E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>5.857598201406012E-2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>5.6904217769863083E-2</v>
-      </c>
-      <c r="H32" s="2">
-        <v>9.6188408865101827E-2</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.158142815201956</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.58204093498653509</v>
-      </c>
-      <c r="K32" s="2">
-        <v>6.7944732179132175E-2</v>
-      </c>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.0105444077327819E-2</v>
-      </c>
-      <c r="D33" s="2">
-        <v>6.6245830057445887E-2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.19383113741089</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.1242816875706501</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.1211058214950875</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.2291614932749392</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.38862736650935942</v>
-      </c>
-      <c r="J33" s="2">
-        <v>2.0831260403537759</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.2366572151949021</v>
-      </c>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6.3592452382338583E-3</v>
-      </c>
-      <c r="D34" s="2">
-        <v>4.4757010624035191E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.18355913214795741</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.1056551219445185</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.1172640183517519</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.2387526963198531</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.40676635799928179</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1.3388292758974161</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0.20601849267613651</v>
-      </c>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3.8420176990742773E-2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.22421375961345469</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.53343532709865094</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.3762852157663546</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.43077441892480078</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.66264979438614457</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1.052671729457954</v>
-      </c>
-      <c r="J35" s="2">
-        <v>2.5376284657136088</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.47462526464142413</v>
-      </c>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>